--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/LT R. Silica.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/LT R. Silica.xlsx
@@ -569,42 +569,18 @@
           <t>Weipa</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0675</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,40 +718,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="9">
@@ -827,42 +803,18 @@
           <t>Kuantan &amp; Johor</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.037</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1129,40 +1081,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0118</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
@@ -1258,40 +1210,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1301,40 +1253,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0534365819646731</v>
+        <v>0.053436582</v>
       </c>
     </row>
     <row r="22">
@@ -1387,40 +1339,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="C23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="D23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="E23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="F23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="G23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="H23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="I23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="J23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="K23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="L23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="M23" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="24">
@@ -1472,42 +1424,18 @@
           <t>Metro BH1**</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.0512643631856213</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1515,42 +1443,18 @@
           <t>Amrun#</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0675</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1644,42 +1548,18 @@
           <t>SMB Malapouya/Boké</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1731,40 +1611,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0597685632310809</v>
+        <v>0.01</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0603803491369832</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0611659658121867</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0622083644504703</v>
+        <v>0.01</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06324518801149399</v>
+        <v>0.01</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06414149489375449</v>
+        <v>0.01</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0649376473055419</v>
+        <v>0.01</v>
       </c>
       <c r="I31" t="n">
-        <v>0.065654195684344</v>
+        <v>0.01</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0663030455797822</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06689145232939871</v>
+        <v>0.01</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0674237317688602</v>
+        <v>0.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0679020089697436</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
@@ -1773,42 +1653,18 @@
           <t>Metro BH1 Xinfa*</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.0512643631856213</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1817,40 +1673,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.014</v>
+        <v>0.059768563</v>
       </c>
       <c r="C33" t="n">
-        <v>0.014</v>
+        <v>0.06038034900000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.014</v>
+        <v>0.061165966</v>
       </c>
       <c r="E33" t="n">
-        <v>0.014</v>
+        <v>0.062208364</v>
       </c>
       <c r="F33" t="n">
-        <v>0.014</v>
+        <v>0.06324518799999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.014</v>
+        <v>0.06414149500000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0.014</v>
+        <v>0.064937647</v>
       </c>
       <c r="I33" t="n">
-        <v>0.014</v>
+        <v>0.065654196</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>0.06630304599999999</v>
       </c>
       <c r="K33" t="n">
-        <v>0.014</v>
+        <v>0.066891452</v>
       </c>
       <c r="L33" t="n">
-        <v>0.014</v>
+        <v>0.067423732</v>
       </c>
       <c r="M33" t="n">
-        <v>0.014</v>
+        <v>0.067902009</v>
       </c>
     </row>
     <row r="34">
@@ -1902,42 +1758,18 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2160,42 +1992,18 @@
           <t>SMB Santou-Houda</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2247,40 +2055,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="C43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="D43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="F43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="G43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="I43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="J43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="K43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="L43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="M43" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
